--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>646868.4207897207</v>
+        <v>646868.4207897208</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514381</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -704,19 +704,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>202.2946864288972</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -1032,10 +1032,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>164.8304714084692</v>
       </c>
       <c r="W6" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1139,58 +1139,58 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>134.6855069843875</v>
       </c>
       <c r="U9" t="n">
-        <v>58.47078044334132</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1376,58 +1376,58 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H11" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,16 +1449,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>123.6003327477366</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -1649,16 +1649,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1701,13 +1701,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1746,13 +1746,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>87.20907807295006</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>8.583694061602047</v>
       </c>
     </row>
     <row r="16">
@@ -1780,49 +1780,49 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
     </row>
     <row r="18">
@@ -1932,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1977,13 +1977,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>206.0178616952363</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2123,28 +2123,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,25 +2160,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2236,58 +2236,58 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2315,76 +2315,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>196.5315760613044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2494,13 +2494,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2564,16 +2564,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>132.876626399942</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>100.2757381414389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>62.37800981884457</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2752,19 +2752,19 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>21.18375537072436</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,28 +2834,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,25 +2871,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>110.6912377069531</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>85.31372784089217</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3010,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.73723617201896</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>55.57566235103583</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3171,7 +3171,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>110.9174757594851</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3348,16 +3348,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>10.60742650965353</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3408,10 +3408,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3445,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3545,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3645,10 +3645,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3670,43 +3670,43 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,26 +3737,26 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3.343063205356696</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3870,16 +3870,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>65.1306020652372</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3986,16 +3986,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4019,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>19.72793538656374</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,31 +4053,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>45.02278574591164</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4352,7 +4352,7 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
         <v>749.627473042513</v>
@@ -4361,7 +4361,7 @@
         <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
         <v>506.1786963984129</v>
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4410,49 +4410,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4507,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4650,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="W6" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
         <v>19.28114311021272</v>
@@ -4750,25 +4750,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4908,25 +4908,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="U9" t="n">
-        <v>630.4088871269773</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="V9" t="n">
-        <v>395.2567788952347</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="W9" t="n">
-        <v>395.2567788952347</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="X9" t="n">
-        <v>395.2567788952347</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.4964801302808</v>
+        <v>726.8416594126254</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
-        <v>487.2836868729568</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D12" t="n">
-        <v>487.2836868729568</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E12" t="n">
-        <v>487.2836868729568</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F12" t="n">
         <v>362.4348659156472</v>
@@ -5124,10 +5124,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
         <v>542.809531908403</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="13">
@@ -5218,16 +5218,16 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
         <v>19.28114311021272</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F14" t="n">
-        <v>730.8505943024719</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="H14" t="n">
         <v>243.9530410142718</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>668.2068788942177</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C15" t="n">
-        <v>668.2068788942177</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5364,16 +5364,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5394,13 +5394,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>875.9671776591715</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>875.9671776591715</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>668.2068788942177</v>
+        <v>955.386757468614</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
         <v>19.28114311021272</v>
@@ -5470,16 +5470,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>730.8505943024719</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C17" t="n">
-        <v>730.8505943024719</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D17" t="n">
-        <v>730.8505943024719</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E17" t="n">
-        <v>730.8505943024719</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5549,16 +5549,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5625,19 +5625,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>279.1848366757484</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>279.1848366757484</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X18" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5692,22 +5692,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5835,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5935,25 +5935,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6069,16 +6069,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>487.8483949674443</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>461.2466632505798</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>461.2466632505798</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>217.7978866064798</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>217.7978866064798</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
         <v>19.28114311021272</v>
@@ -6181,16 +6181,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>231.8830517671884</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C26" t="n">
-        <v>231.8830517671884</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D26" t="n">
-        <v>231.8830517671884</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8830517671884</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F26" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W26" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X26" t="n">
-        <v>231.8830517671884</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y26" t="n">
-        <v>231.8830517671884</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>210.869396638348</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="C27" t="n">
-        <v>210.869396638348</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="D27" t="n">
-        <v>109.5807722530562</v>
+        <v>242.2808214945596</v>
       </c>
       <c r="E27" t="n">
-        <v>109.5807722530562</v>
+        <v>83.04336648910407</v>
       </c>
       <c r="F27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6309,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>454.3181732824481</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W27" t="n">
-        <v>210.869396638348</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X27" t="n">
-        <v>210.869396638348</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y27" t="n">
-        <v>210.869396638348</v>
+        <v>391.2152311558108</v>
       </c>
     </row>
     <row r="28">
@@ -6400,16 +6400,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
         <v>19.28114311021272</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>40.6788758079141</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C29" t="n">
-        <v>40.6788758079141</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D29" t="n">
-        <v>40.6788758079141</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E29" t="n">
-        <v>40.6788758079141</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F29" t="n">
-        <v>40.6788758079141</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G29" t="n">
-        <v>40.6788758079141</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H29" t="n">
-        <v>40.6788758079141</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>284.1276524520142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>40.6788758079141</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>40.6788758079141</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X29" t="n">
-        <v>40.6788758079141</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y29" t="n">
-        <v>40.6788758079141</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>622.424473941237</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C30" t="n">
-        <v>622.424473941237</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D30" t="n">
-        <v>473.4900642799857</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6549,16 +6549,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="U30" t="n">
-        <v>790.6398109613051</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="V30" t="n">
-        <v>790.6398109613051</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="W30" t="n">
-        <v>790.6398109613051</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="X30" t="n">
-        <v>790.6398109613051</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="Y30" t="n">
-        <v>790.6398109613051</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="31">
@@ -6658,7 +6658,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>718.7806050553886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C32" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D32" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E32" t="n">
-        <v>475.3318284112885</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F32" t="n">
-        <v>475.3318284112885</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G32" t="n">
-        <v>475.3318284112885</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V32" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W32" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X32" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y32" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="33">
@@ -6786,16 +6786,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,19 +6804,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>907.9201228328222</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T33" t="n">
-        <v>705.7335281915883</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U33" t="n">
-        <v>705.7335281915883</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V33" t="n">
-        <v>470.5814199598456</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W33" t="n">
-        <v>227.1326433157456</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
         <v>19.28114311021272</v>
@@ -6835,28 +6835,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>852.019301208126</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>852.019301208126</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>852.019301208126</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
         <v>829.5248650203655</v>
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F35" t="n">
         <v>262.7299197543128</v>
@@ -6965,22 +6965,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>336.5218609735422</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>177.2844059680867</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>30.7498479949717</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,16 +7023,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7047,19 +7047,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K37" t="n">
         <v>19.28114311021272</v>
@@ -7114,31 +7114,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
         <v>19.28114311021272</v>
@@ -7354,28 +7354,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X41" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7518,22 +7518,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>898.2686685760532</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>670.0450503124422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>434.8929420806995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>434.8929420806995</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>227.0414418751666</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
         <v>19.28114311021272</v>
@@ -7600,19 +7600,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>475.3318284112885</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C44" t="n">
-        <v>475.3318284112885</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D44" t="n">
-        <v>475.3318284112885</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E44" t="n">
-        <v>475.3318284112885</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F44" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>944.1299480494607</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>944.1299480494607</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>718.7806050553886</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>718.7806050553886</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V44" t="n">
-        <v>475.3318284112885</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W44" t="n">
-        <v>475.3318284112885</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X44" t="n">
-        <v>475.3318284112885</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y44" t="n">
-        <v>475.3318284112885</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>371.2848501010757</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>65.51283712250515</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>65.51283712250515</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="46">
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,13 +8070,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,10 +8298,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M6" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8772,13 +8772,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9012,7 +9012,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9483,22 +9483,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O24" t="n">
-        <v>369.031319612638</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9957,10 +9957,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M27" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,7 +10197,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,10 +10434,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>197.6503338623806</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>174.6270615612551</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>255.5148970497678</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11154,10 +11154,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N45" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22592,19 +22592,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>6.725383157348119</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
@@ -22626,25 +22626,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,22 +22671,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22790,19 +22790,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22826,22 +22826,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22863,7 +22863,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22884,7 +22884,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22920,10 +22920,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>67.97011574095609</v>
       </c>
       <c r="W6" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22954,7 +22954,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -22990,7 +22990,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23027,19 +23027,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23066,19 +23066,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23097,31 +23097,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23148,16 +23148,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>65.47922171043408</v>
       </c>
       <c r="U9" t="n">
-        <v>167.4706016376335</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23166,7 +23166,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23182,7 +23182,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>18.14994616795082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,7 +23218,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23264,16 +23264,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23300,22 +23300,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23337,16 +23337,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>21.46887964564732</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23470,7 +23470,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23504,13 +23504,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>218.5474650704376</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23537,16 +23537,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23571,13 +23571,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23589,13 +23589,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23634,13 +23634,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>164.4859050879695</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>197.0990017157023</v>
       </c>
     </row>
     <row r="16">
@@ -23668,7 +23668,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
         <v>155.4504749272583</v>
@@ -23710,7 +23710,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>151.8593460673979</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>384.4284425830174</v>
       </c>
     </row>
     <row r="18">
@@ -23820,19 +23820,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23865,13 +23865,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>19.92352038573853</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23932,7 +23932,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23944,13 +23944,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2941050228172</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23975,7 +23975,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,7 +23984,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,28 +24011,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,25 +24048,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24096,19 +24096,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,16 +24215,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>8.181203141508671</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24263,16 +24263,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24330,10 +24330,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24342,16 +24342,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.151119715999982</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24382,13 +24382,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24452,16 +24452,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24491,13 +24491,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>118.4690265078945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24525,13 +24525,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>47.1693274231999</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6912025745393</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24540,10 +24540,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,16 +24570,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24640,19 +24640,19 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>179.7131144384051</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24692,13 +24692,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>189.2921341996816</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,28 +24722,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,25 +24759,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>46.95384274844784</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24807,7 +24807,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>86.36944326294565</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24898,10 +24898,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>372.9966054914616</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24962,13 +24962,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -25044,13 +25044,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>116.107508752802</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25059,7 +25059,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25090,7 +25090,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>51.30969674795443</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25099,7 +25099,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,7 +25163,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25205,7 +25205,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>156.0341136990839</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25236,16 +25236,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>126.7360906535571</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25287,7 +25287,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25296,10 +25296,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25333,10 +25333,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>68.60374760888197</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,22 +25391,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>370.7373139160822</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,16 +25433,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25454,7 +25454,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,7 +25521,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25533,10 +25533,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C41" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25643,7 +25643,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>169.3654357829591</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25722,13 +25722,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25758,16 +25758,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>135.0341266295844</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>35.51648688708399</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25810,7 +25810,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25874,16 +25874,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>304.5378186490225</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25907,13 +25907,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>130.141182554586</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,31 +25941,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>67.21265849058483</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,19 +25998,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465249.8830877308</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877308</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>465249.8830877308</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116312.4707719326</v>
+        <v>116312.4707719327</v>
       </c>
       <c r="C2" t="n">
         <v>116312.4707719327</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26436,7 +26436,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="J4" t="n">
         <v>179.5324977039669</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12917.76202108072</v>
+        <v>-12917.76202108071</v>
       </c>
       <c r="C6" t="n">
-        <v>67851.66951046704</v>
+        <v>67851.66951046702</v>
       </c>
       <c r="D6" t="n">
-        <v>67851.66951046701</v>
+        <v>67851.66951046707</v>
       </c>
       <c r="E6" t="n">
         <v>101479.2695104671</v>
       </c>
       <c r="F6" t="n">
-        <v>101479.269510467</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="G6" t="n">
         <v>101479.2695104671</v>
       </c>
       <c r="H6" t="n">
-        <v>101479.2695104671</v>
+        <v>101479.269510467</v>
       </c>
       <c r="I6" t="n">
-        <v>101479.2695104671</v>
+        <v>101479.269510467</v>
       </c>
       <c r="J6" t="n">
-        <v>38419.32691136083</v>
+        <v>38419.32691136086</v>
       </c>
       <c r="K6" t="n">
         <v>101479.2695104671</v>
       </c>
       <c r="L6" t="n">
-        <v>101479.2695104671</v>
+        <v>101479.269510467</v>
       </c>
       <c r="M6" t="n">
         <v>101479.2695104671</v>
@@ -26558,10 +26558,10 @@
         <v>101479.269510467</v>
       </c>
       <c r="O6" t="n">
-        <v>101479.269510467</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="P6" t="n">
-        <v>101479.269510467</v>
+        <v>101479.2695104671</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,13 +34790,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M6" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35732,7 +35732,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O24" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36604,7 +36604,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
         <v>150.7019698410586</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M27" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>55.51629994036225</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>43.28534947792182</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>113.3808631277495</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -37874,10 +37874,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N45" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38114,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
